--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>354</v>
+        <v>161</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>964</v>
+        <v>201</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,21 +432,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1000</v>
+        <v>248</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2422</v>
+        <v>354</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -454,79 +454,167 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>4253</v>
+        <v>362</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6098</v>
+        <v>414</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>8659</v>
+        <v>990</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>132</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9690</v>
+        <v>1070</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>11164</v>
+        <v>1243</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>13293</v>
+        <v>1504</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>23660</v>
+        <v>1514</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1519</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1703</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>5452</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>8896</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>11846</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>11867</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>13324</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>21946</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -432,10 +432,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -460,111 +460,111 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>414</v>
+        <v>523</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>990</v>
+        <v>964</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1070</v>
+        <v>2774</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1243</v>
+        <v>3338</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1504</v>
+        <v>3658</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1514</v>
+        <v>3934</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1519</v>
+        <v>5734</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1759</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1703</v>
+        <v>6158</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>176</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5452</v>
+        <v>6359</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>8896</v>
+        <v>6497</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -575,46 +575,145 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>11846</v>
+        <v>9507</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>316</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>11867</v>
+        <v>9690</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>517</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>13324</v>
+        <v>11491</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
+        <v>11510</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>11846</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>11885</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>12059</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>12241</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>13033</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>13294</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>21712</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>21946</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>80</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>23335</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -421,10 +421,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>201</v>
+        <v>409</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,21 +432,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>202</v>
+        <v>523</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>248</v>
+        <v>964</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -454,54 +454,54 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>362</v>
+        <v>1309</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>151</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>523</v>
+        <v>2057</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>166</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>964</v>
+        <v>2774</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2774</v>
+        <v>3257</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3338</v>
+        <v>3477</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -509,211 +509,123 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3658</v>
+        <v>5812</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3934</v>
+        <v>6158</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>5734</v>
+        <v>7084</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>6158</v>
+        <v>9082</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>283</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>6359</v>
+        <v>9690</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1473</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>6497</v>
+        <v>9784</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>9507</v>
+        <v>9997</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>9690</v>
+        <v>10993</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>11491</v>
+        <v>11180</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>145</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>11510</v>
+        <v>11489</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>11846</v>
+        <v>12241</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>11885</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>12059</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>12241</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>13033</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>13294</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>21712</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>21946</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>23335</v>
-      </c>
-      <c r="B30">
-        <v>14</v>
-      </c>
-      <c r="C30">
-        <v>402</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,233 +399,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>305</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>161</v>
+        <v>1504</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>409</v>
+        <v>5811</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>523</v>
+        <v>5812</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>166</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>964</v>
+        <v>6935</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1309</v>
+        <v>6936</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2057</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2774</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>3257</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>3477</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>5812</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>6158</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>7084</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>9082</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>9690</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>9784</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>9997</v>
-      </c>
-      <c r="B18">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>10993</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>11180</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>11489</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>12241</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,67 +399,45 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1504</v>
+        <v>201</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>5811</v>
+        <v>2327</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>655</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5812</v>
+        <v>6936</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>6935</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6936</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
         <v>13</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,46 +399,112 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>71</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2327</v>
+        <v>248</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
+        <v>2057</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3430</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>6936</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>11234</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>11504</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>11844</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>12352</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,43 +399,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>169</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>206</v>
+        <v>416</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>248</v>
+        <v>515</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2057</v>
+        <v>1413</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -443,68 +443,35 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3430</v>
+        <v>2057</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>6936</v>
+        <v>12721</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>11234</v>
+        <v>21793</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>11504</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>11844</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>12352</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>62</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,61 +416,50 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>515</v>
+        <v>1504</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>219</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1413</v>
+        <v>2057</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2057</v>
+        <v>6098</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>496</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>12721</v>
+        <v>21793</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>21793</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
         <v>13</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,68 +399,123 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>165</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>416</v>
+        <v>142</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1504</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2057</v>
+        <v>362</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>497</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>6098</v>
+        <v>950</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>21793</v>
+        <v>2054</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5869</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7886</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9784</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11504</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11586</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,26 +405,26 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>206</v>
+        <v>972</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,90 +432,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>362</v>
+        <v>3430</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>950</v>
+        <v>8674</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2054</v>
+        <v>11835</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>503</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5869</v>
+        <v>11838</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>7886</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9784</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>11504</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11586</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,78 +399,375 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>972</v>
+        <v>146</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3430</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>8674</v>
+        <v>161</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>11835</v>
+        <v>192</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>11838</v>
+        <v>583</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>823</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>944</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>990</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1055</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1309</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1429</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1504</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2188</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2327</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2421</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2423</v>
+      </c>
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2805</v>
+      </c>
+      <c r="B20">
+        <v>137</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>3495</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>3673</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>8674</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>8938</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>8939</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>9358</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>10149</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>10174</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>11402</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>11837</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>11844</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>12344</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>12923</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>12924</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>25278</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,109 +399,109 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>171</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1631</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>583</v>
+        <v>143</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>823</v>
+        <v>151</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>944</v>
+        <v>201</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>990</v>
+        <v>248</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>57</v>
@@ -509,266 +509,651 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1055</v>
+        <v>307</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1309</v>
+        <v>330</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1429</v>
+        <v>344</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1504</v>
+        <v>362</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2188</v>
+        <v>409</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2327</v>
+        <v>436</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2421</v>
+        <v>583</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2423</v>
+        <v>615</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2805</v>
+        <v>624</v>
       </c>
       <c r="B20">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3495</v>
+        <v>947</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>1106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>3673</v>
+        <v>1006</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>8674</v>
+        <v>1429</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>312</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>8938</v>
+        <v>2049</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>8939</v>
+        <v>2050</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>181</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>9358</v>
+        <v>2194</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>10149</v>
+        <v>2331</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1034</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>10174</v>
+        <v>2423</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>11402</v>
+        <v>2436</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>11837</v>
+        <v>3671</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>11844</v>
+        <v>3673</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>12344</v>
+        <v>3674</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>12923</v>
+        <v>5491</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>12924</v>
+        <v>5493</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>25278</v>
+        <v>5584</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>5585</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>6494</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>7007</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>8155</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>8156</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>8285</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>8356</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>8650</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>8674</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>8676</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>8923</v>
+      </c>
+      <c r="B46">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>8938</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>8939</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>9430</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>9530</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>10147</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>10149</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>10993</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>11090</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>11738</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>11773</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>11812</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>11952</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>12128</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>12304</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>12546</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>12721</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>12923</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>13113</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>13200</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>19685</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>19687</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>22325</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>23238</v>
+      </c>
+      <c r="B69">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>24257</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1125.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,167 +399,167 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>616</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>648</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>59</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -570,213 +570,213 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>624</v>
+        <v>947</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1006</v>
+        <v>1243</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>249</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1429</v>
+        <v>1409</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>149</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2049</v>
+        <v>1413</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>605</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2050</v>
+        <v>1656</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2194</v>
+        <v>1814</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2331</v>
+        <v>2050</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>137</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2423</v>
+        <v>2054</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2436</v>
+        <v>2331</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3671</v>
+        <v>2423</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3673</v>
+        <v>2497</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>278</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3674</v>
+        <v>2774</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>265</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5491</v>
+        <v>2859</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>5493</v>
+        <v>3429</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5584</v>
+        <v>3495</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>281</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>5585</v>
+        <v>3598</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -784,219 +784,219 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>6494</v>
+        <v>3670</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>7007</v>
+        <v>4927</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>8155</v>
+        <v>5490</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>8156</v>
+        <v>5584</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>8285</v>
+        <v>5585</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>539</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>8356</v>
+        <v>5647</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8650</v>
+        <v>6158</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43">
-        <v>215</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>8674</v>
+        <v>6496</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>318</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>8676</v>
+        <v>6935</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>314</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>8923</v>
+        <v>7007</v>
       </c>
       <c r="B46">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>8938</v>
+        <v>7886</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>8939</v>
+        <v>8156</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>185</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>9430</v>
+        <v>8356</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>9530</v>
+        <v>8672</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>36</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>10147</v>
+        <v>8915</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>72</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>10149</v>
+        <v>9507</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>1051</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>10993</v>
+        <v>9784</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>11090</v>
+        <v>9877</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>11738</v>
+        <v>10149</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>65</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11773</v>
+        <v>10716</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -1004,54 +1004,54 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11812</v>
+        <v>11681</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>11952</v>
+        <v>11683</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>227</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>12128</v>
+        <v>11685</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>12304</v>
+        <v>11773</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>12546</v>
+        <v>11961</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>7</v>
@@ -1059,101 +1059,145 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>12721</v>
+        <v>11962</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>316</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>12923</v>
+        <v>12040</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>13113</v>
+        <v>12304</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>13200</v>
+        <v>13034</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>19685</v>
+        <v>13200</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>19687</v>
+        <v>13928</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>22325</v>
+        <v>19980</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>23238</v>
+        <v>21454</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>24257</v>
+        <v>22573</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>155</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>23238</v>
+      </c>
+      <c r="B71">
+        <v>29</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>24567</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>24668</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>25278</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
